--- a/biology/Microbiologie/Thermotogae/Thermotogae.xlsx
+++ b/biology/Microbiologie/Thermotogae/Thermotogae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thermotogae sont une classe de bactéries extrémophiles thermophiles à Gram négatif de l'embranchement des Thermotogota. Son nom provient de Thermotogales qui est l'ordre type de cette classe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries de la classe des Thermotogae sont de formées d'une cellule enveloppée dans une toge membranaire extérieure. Elles métabolisent les hydrates de carbone. Les différentes espèces ont des tolérances variables à l'oxygène et aux sels. Le genre type a été nommé par le microbiologiste Karl Stetter.
 </t>
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2001 Reysenbach  crée le phylum Thermotogae pour contenir les bactéries du genre Thermotoga mais la publication dans le Bergey's Manual of Systematic Bacteriology n'a pas été effectuée de manière valide selon le code de nomenclature bactérienne[1]. Ce taxon a été republié en 2021 avec une modification de son nom en Thermotogota pour se conformer aux règles de Nomenclature  de l'ICSP en maintenant l'autorité d'invention à Reysenbach mais avec la date de validation de 2021[2].
-La classe Thermotogae est proposée sous ce nom en 2002 par A.L. Reysenbach dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[3]. Elle est validée la même année par une publication dans l'IJSEM[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001 Reysenbach  crée le phylum Thermotogae pour contenir les bactéries du genre Thermotoga mais la publication dans le Bergey's Manual of Systematic Bacteriology n'a pas été effectuée de manière valide selon le code de nomenclature bactérienne. Ce taxon a été republié en 2021 avec une modification de son nom en Thermotogota pour se conformer aux règles de Nomenclature  de l'ICSP en maintenant l'autorité d'invention à Reysenbach mais avec la date de validation de 2021.
+La classe Thermotogae est proposée sous ce nom en 2002 par A.L. Reysenbach dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Elle est validée la même année par une publication dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de la classe Thermotogae est la suivante : Ther.mo.to’gae N.L. fem. n. Thermotoga, enre type de l'ordre type de cette classe; N.L. fem. pl. n. Thermotogae, la classe des Thermotoga[5].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de la classe Thermotogae est la suivante : Ther.mo.to’gae N.L. fem. n. Thermotoga, enre type de l'ordre type de cette classe; N.L. fem. pl. n. Thermotogae, la classe des Thermotoga.
 </t>
         </is>
       </c>
@@ -606,13 +627,15 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (2 décembre 2022)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (2 décembre 2022) :
 Kosmotogales Bhandari &amp; Gupta 2014
 Mesoaciditogales Itoh et al. 2016
 Petrotogales Bhandari &amp; Gupta 2014
-Thermotogales Reysenbach 2002 – ordre type de cette classe[5]</t>
+Thermotogales Reysenbach 2002 – ordre type de cette classe</t>
         </is>
       </c>
     </row>
